--- a/data/trans_camb/P15B_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15B_3_R-Edad-trans_camb.xlsx
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-22.57244405732444</v>
+        <v>-22.3115617997512</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-27.7826973637135</v>
+        <v>-27.70542365893954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.31949947252721</v>
+        <v>-16.08742739564403</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-16.78262689398715</v>
+        <v>-17.50155462988646</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-19.57110254286121</v>
+        <v>-18.54722492740718</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.751122101170837</v>
+        <v>-9.315531485942527</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.262399058857935</v>
+        <v>4.897906258036558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.537101888044527</v>
+        <v>-1.409055936567461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56.24628828433011</v>
+        <v>58.1699550881471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.76258706112325</v>
+        <v>18.49909142890343</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>33.01646445820482</v>
+        <v>33.09007841557613</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>47.17909117940141</v>
+        <v>48.44324781637504</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.341580790901626</v>
+        <v>3.712912022240563</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.002953535351084</v>
+        <v>4.005058700072301</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>38.85160865024577</v>
+        <v>36.51847319510487</v>
       </c>
     </row>
     <row r="7">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8872921244687035</v>
+        <v>-0.8729160947904746</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
@@ -794,13 +794,13 @@
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.8545349697633932</v>
+        <v>-0.8571851234094277</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.959085820335239</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6431600055910967</v>
+        <v>-0.6673357291904292</v>
       </c>
     </row>
     <row r="9">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.712988328056396</v>
+        <v>1.305556143339626</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
@@ -819,13 +819,13 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>1.530254118022703</v>
+        <v>1.188392876866922</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9654899145531912</v>
+        <v>2.346173227385902</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>7.985519123810825</v>
+        <v>8.121897196414828</v>
       </c>
     </row>
     <row r="10">
@@ -875,31 +875,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-25.90785548156773</v>
+        <v>-28.55887826570098</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-29.40927692420136</v>
+        <v>-28.37429772453186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-24.72527564078267</v>
+        <v>-23.19539633285316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-45.26720309815544</v>
+        <v>-44.46842212107921</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-39.76445359765449</v>
+        <v>-39.9694480024495</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-46.73471029340909</v>
+        <v>-49.08704791731648</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-26.71411304043986</v>
+        <v>-25.82717455926877</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-24.82930929687124</v>
+        <v>-23.88440339034324</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-24.6058979905847</v>
+        <v>-25.98987749533517</v>
       </c>
     </row>
     <row r="12">
@@ -910,31 +910,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.28929096221346</v>
+        <v>12.0520316052412</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.11486132597782</v>
+        <v>13.71268445393545</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28.37145458212126</v>
+        <v>28.53121995995328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.010803972008293</v>
+        <v>6.05783289267539</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.43730998834096</v>
+        <v>13.78266592255048</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.113404536281196</v>
+        <v>0.5646104764605212</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.128233613786548</v>
+        <v>3.880675922149766</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.713764543209796</v>
+        <v>6.236341572706548</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>15.3860407529328</v>
+        <v>13.5265118777844</v>
       </c>
     </row>
     <row r="13">
@@ -980,29 +980,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5747116439059097</v>
+        <v>-0.5945225797075907</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6420674015944122</v>
+        <v>-0.6409417921783159</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.597354909331259</v>
+        <v>-0.5941110318261188</v>
       </c>
       <c r="F14" s="6" t="n">
+        <v>-0.9415579657376367</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8763689296881548</v>
+      </c>
+      <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="6" t="n">
-        <v>-0.8847266585169251</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.6357175852511092</v>
+        <v>-0.6309055162686656</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5941130085298866</v>
+        <v>-0.6019927464802219</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.651044953386644</v>
+        <v>-0.6710967329736579</v>
       </c>
     </row>
     <row r="15">
@@ -1013,29 +1015,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6490024524360167</v>
+        <v>0.6156038503627617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6292394853703334</v>
+        <v>0.8364158007577264</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.275861956310661</v>
+        <v>1.505969182577027</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6881790718334698</v>
+        <v>0.8406324704703377</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.604404534126957</v>
-      </c>
-      <c r="H15" s="6" t="inlineStr"/>
+        <v>1.459664033178363</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.663973956483766</v>
+      </c>
       <c r="I15" s="6" t="n">
-        <v>0.2334048854273288</v>
+        <v>0.1719684893445408</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4482872235641041</v>
+        <v>0.3218731849138537</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7939235319173057</v>
+        <v>0.6115649978738441</v>
       </c>
     </row>
     <row r="16">
@@ -1065,7 +1069,7 @@
         <v>-6.506810181725093</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.757054905466619</v>
+        <v>-4.757054905466617</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-15.46558377681358</v>
@@ -1085,31 +1089,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-56.05134200295792</v>
+        <v>-54.32068188036053</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-59.21709796855109</v>
+        <v>-57.61541757730877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-57.98756063673742</v>
+        <v>-57.25827679410542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-33.53674477502129</v>
+        <v>-37.9008720979045</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-33.75664240053643</v>
+        <v>-32.69826030145605</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-35.95741620897385</v>
+        <v>-32.06927602848124</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-38.29954170309382</v>
+        <v>-38.52749701332015</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-39.89476568616767</v>
+        <v>-39.15396247620568</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-39.75450174141375</v>
+        <v>-39.34763765394077</v>
       </c>
     </row>
     <row r="18">
@@ -1120,31 +1124,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.469636483078436</v>
+        <v>4.049437334433352</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.718144769178294</v>
+        <v>3.532776399055541</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.833867694989571</v>
+        <v>5.620460701404845</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.682984001857951</v>
+        <v>6.828501116745341</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.01983253556393</v>
+        <v>10.48263898282524</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.909166209052229</v>
+        <v>9.812007031925091</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.064780901983819</v>
+        <v>2.82137040731992</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.635836464878881</v>
+        <v>1.299784690510258</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9974390092190181</v>
+        <v>3.378177941503993</v>
       </c>
     </row>
     <row r="19">
@@ -1170,7 +1174,7 @@
         <v>-0.4662575550654725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3408755945831258</v>
+        <v>-0.3408755945831257</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.4588696938944438</v>
@@ -1190,25 +1194,27 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7693113344440734</v>
+        <v>-0.7697087493623204</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8475320276810282</v>
+        <v>-0.8262707192907603</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8172316684020697</v>
+        <v>-0.8071189405954883</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-0.9137268383920257</v>
+      </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7413933689001733</v>
+        <v>-0.7522286404710339</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.807918196089085</v>
+        <v>-0.8076610254732361</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7709868494409803</v>
+        <v>-0.7697903561662478</v>
       </c>
     </row>
     <row r="21">
@@ -1219,25 +1225,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1129770641335971</v>
+        <v>0.1422636522876195</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1820484579739876</v>
+        <v>0.1711165717079446</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1408554438397826</v>
+        <v>0.2592616414688014</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>0.2708832470005407</v>
+        <v>0.1980548369838225</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1761038588829222</v>
+        <v>0.1320244514901285</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.145627687286035</v>
+        <v>0.2630054399946412</v>
       </c>
     </row>
     <row r="22">
@@ -1287,31 +1293,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-48.60036342799212</v>
+        <v>-51.8009981414484</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-71.57545724697606</v>
+        <v>-70.19467965107509</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-65.73006434217629</v>
+        <v>-65.91094841338176</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-45.33830416921491</v>
+        <v>-50.35000747057531</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-43.35219935507529</v>
+        <v>-45.78446937687431</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-54.22590227253396</v>
+        <v>-50.13061242595646</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-47.21591657773408</v>
+        <v>-49.05333504738277</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-55.27716033629092</v>
+        <v>-56.88777729993512</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-56.38211215713951</v>
+        <v>-56.93448827782316</v>
       </c>
     </row>
     <row r="24">
@@ -1322,31 +1328,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.728977214512176</v>
+        <v>6.407475731200432</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-14.73632799565499</v>
+        <v>-14.14072969781477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-10.0336720330082</v>
+        <v>-14.80231419742675</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.05579847425976</v>
+        <v>13.28182886544412</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.2397482518218</v>
+        <v>16.8836340535707</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.983625788289256</v>
+        <v>8.510565503454961</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.830316745755503</v>
+        <v>-4.253348840335323</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-12.48606367165652</v>
+        <v>-12.76350537033099</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-15.74987786276391</v>
+        <v>-15.26380704315338</v>
       </c>
     </row>
     <row r="25">
@@ -1392,25 +1398,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6039854390966489</v>
+        <v>-0.6209882929304287</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8723633882549602</v>
+        <v>-0.8733106232143664</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8137639695765139</v>
+        <v>-0.8214632678121317</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.7021544096632784</v>
+        <v>-0.6924073354099775</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8311750179668911</v>
+        <v>-0.8565348493753921</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8155149677826858</v>
+        <v>-0.8174018008927061</v>
       </c>
     </row>
     <row r="27">
@@ -1421,25 +1427,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1277180550212976</v>
+        <v>0.1154065112562824</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2935971351918855</v>
+        <v>-0.2631107288024035</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2721500507858601</v>
+        <v>-0.3264082569835439</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>-0.06866260944557923</v>
+        <v>-0.0957275947288791</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3374730648863249</v>
+        <v>-0.3356212810982525</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4038728143442183</v>
+        <v>-0.3748701355018784</v>
       </c>
     </row>
     <row r="28">
@@ -1478,7 +1484,7 @@
         <v>-1.062886863564244</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>11.26384848276897</v>
+        <v>11.26384848276896</v>
       </c>
     </row>
     <row r="29">
@@ -1489,31 +1495,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-19.55308354764619</v>
+        <v>-18.34124543640807</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-56.13722528640487</v>
+        <v>-53.72511281349453</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-33.66424523567442</v>
+        <v>-35.03837348590354</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.375749004313079</v>
+        <v>3.349871700707953</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.919546190029155</v>
+        <v>8.082280100997931</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-18.75726937841822</v>
+        <v>-18.39072121577264</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-23.27047567415051</v>
+        <v>-23.83212993542717</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-10.28432624251496</v>
+        <v>-10.90001214645534</v>
       </c>
     </row>
     <row r="30">
@@ -1524,31 +1530,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>58.91054232597447</v>
+        <v>63.56121169872978</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.600784861627233</v>
+        <v>7.57891805982892</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31.30850604144262</v>
+        <v>31.80099769704123</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.1012922258705</v>
+        <v>12.11521044198171</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>25.85311799508193</v>
+        <v>28.45364153016579</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>27.37925540173723</v>
+        <v>26.80565256445811</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>16.37492308800267</v>
+        <v>16.64630247718701</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.98261515395464</v>
+        <v>11.36097785228089</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>25.51344949915477</v>
+        <v>23.13247221856075</v>
       </c>
     </row>
     <row r="31">
@@ -1589,7 +1595,7 @@
         <v>-0.09995248934650047</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.059237567109617</v>
+        <v>1.059237567109616</v>
       </c>
     </row>
     <row r="32">
@@ -1600,23 +1606,21 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4975695665787443</v>
+        <v>-0.5135643096584405</v>
       </c>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.6879700890126429</v>
+        <v>-0.6957820481464747</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.8203943231808816</v>
-      </c>
-      <c r="J32" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8116374086927223</v>
+      </c>
+      <c r="J32" s="6" t="inlineStr"/>
       <c r="K32" s="6" t="n">
-        <v>-0.5000969486655729</v>
+        <v>-0.5056990248733868</v>
       </c>
     </row>
     <row r="33">
@@ -1708,17 +1712,17 @@
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>26.39590797128287</v>
+        <v>21.48193090688315</v>
       </c>
       <c r="F36" s="5" t="inlineStr"/>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="5" t="n">
-        <v>7.357582247947849</v>
+        <v>7.521044623479899</v>
       </c>
       <c r="I36" s="5" t="inlineStr"/>
       <c r="J36" s="5" t="inlineStr"/>
       <c r="K36" s="5" t="n">
-        <v>10.67936442638461</v>
+        <v>8.636161681059603</v>
       </c>
     </row>
     <row r="37">
@@ -1855,12 +1859,12 @@
       <c r="D42" s="5" t="inlineStr"/>
       <c r="E42" s="5" t="inlineStr"/>
       <c r="F42" s="5" t="n">
-        <v>10.94909938519218</v>
+        <v>10.84879784253299</v>
       </c>
       <c r="G42" s="5" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
       <c r="I42" s="5" t="n">
-        <v>7.704679400698032</v>
+        <v>8.734845056460383</v>
       </c>
       <c r="J42" s="5" t="inlineStr"/>
       <c r="K42" s="5" t="inlineStr"/>
@@ -1942,7 +1946,7 @@
         <v>-17.15020112432522</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-9.575901295614766</v>
+        <v>-9.575901295614772</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-4.849381659781986</v>
@@ -1971,31 +1975,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-20.40921273872521</v>
+        <v>-19.95567750287934</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-27.50810459682201</v>
+        <v>-26.79069784339559</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-20.53945579062521</v>
+        <v>-20.86458673108203</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-13.46534848631506</v>
+        <v>-13.44036287664912</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-11.09981349430547</v>
+        <v>-10.96756351690562</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-11.32108019960937</v>
+        <v>-11.02349508568275</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-14.90219360866416</v>
+        <v>-15.5865378855076</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-18.60897311716856</v>
+        <v>-18.33705507040682</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-14.60201321101145</v>
+        <v>-15.15422183593438</v>
       </c>
     </row>
     <row r="48">
@@ -2006,31 +2010,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.2022318294924373</v>
+        <v>-1.341927186224041</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-7.649850593220557</v>
+        <v>-6.548574761850172</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.6721315129983543</v>
+        <v>1.247502892506335</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.012510131180195</v>
+        <v>1.083548617903139</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.310077187492659</v>
+        <v>3.313219019436288</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.932057745026327</v>
+        <v>3.461031700676873</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.755865417210037</v>
+        <v>-1.800787126786703</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-5.131616708902043</v>
+        <v>-5.794970448619741</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.450824508757808</v>
+        <v>-1.134887753751064</v>
       </c>
     </row>
     <row r="49">
@@ -2047,7 +2051,7 @@
         <v>-0.5344755080836856</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.2984270955909444</v>
+        <v>-0.2984270955909446</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.4794689030787955</v>
@@ -2076,31 +2080,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5108445388490752</v>
+        <v>-0.5207825382904867</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7035735003660327</v>
+        <v>-0.7057536117783039</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5292278098491162</v>
+        <v>-0.5521266338142355</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.7939768261919584</v>
+        <v>-0.8036901782591261</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6711783996992151</v>
+        <v>-0.7234786462889019</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6875007984092519</v>
+        <v>-0.6830553291012763</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5368601899088573</v>
+        <v>-0.5585593681243382</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6662882988840105</v>
+        <v>-0.6567115486927043</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5482703146512627</v>
+        <v>-0.5490245131717368</v>
       </c>
     </row>
     <row r="51">
@@ -2111,31 +2115,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01578920089952038</v>
+        <v>-0.04968700965529914</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2737202846846338</v>
+        <v>-0.2609179519627544</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.0354033941866285</v>
+        <v>0.0705673970087769</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3155262866330699</v>
+        <v>0.3008771483069139</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6691252160170947</v>
+        <v>0.6437910598764823</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5852012178386889</v>
+        <v>0.7695310640450918</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.08074468347555895</v>
+        <v>-0.1020333192478772</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.2877110748578448</v>
+        <v>-0.2745018252124504</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.08014938142980041</v>
+        <v>-0.0569697846162367</v>
       </c>
     </row>
     <row r="52">
